--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>48.25112607076885</v>
+        <v>60.36147533842628</v>
       </c>
       <c r="AB2" t="n">
-        <v>66.01931937945092</v>
+        <v>82.58923351835425</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.71852819658697</v>
+        <v>74.70703298609918</v>
       </c>
       <c r="AD2" t="n">
-        <v>48251.12607076885</v>
+        <v>60361.47533842628</v>
       </c>
       <c r="AE2" t="n">
-        <v>66019.31937945091</v>
+        <v>82589.23351835425</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.320748999567268e-06</v>
+        <v>1.354530232692075e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.074652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>59718.52819658697</v>
+        <v>74707.03298609918</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.31099579732337</v>
+        <v>45.50659641100347</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.5775740271911</v>
+        <v>62.26413281885861</v>
       </c>
       <c r="AC3" t="n">
-        <v>41.22771433064148</v>
+        <v>56.32173137089895</v>
       </c>
       <c r="AD3" t="n">
-        <v>33310.99579732337</v>
+        <v>45506.59641100347</v>
       </c>
       <c r="AE3" t="n">
-        <v>45577.57402719111</v>
+        <v>62264.13281885861</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.284724119637408e-06</v>
+        <v>1.532890868164642e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.834490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>41227.71433064148</v>
+        <v>56321.73137089895</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.24008352885114</v>
+        <v>45.00379566157029</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.48054873303936</v>
+        <v>61.57617865148095</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.13994899438744</v>
+        <v>55.69943458370585</v>
       </c>
       <c r="AD2" t="n">
-        <v>33240.08352885114</v>
+        <v>45003.79566157029</v>
       </c>
       <c r="AE2" t="n">
-        <v>45480.54873303937</v>
+        <v>61576.17865148095</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.095482320472627e-06</v>
+        <v>1.543123869802538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.941550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>41139.94899438744</v>
+        <v>55699.43458370585</v>
       </c>
     </row>
     <row r="3">
@@ -2061,28 +2061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.8593514160711</v>
+        <v>43.62306354879003</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.59137014274111</v>
+        <v>59.6870000611742</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.43107095726281</v>
+        <v>53.99055654657857</v>
       </c>
       <c r="AD3" t="n">
-        <v>31859.35141607109</v>
+        <v>43623.06354879003</v>
       </c>
       <c r="AE3" t="n">
-        <v>43591.37014274111</v>
+        <v>59687.0000611742</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.664638620440222e-06</v>
+        <v>1.651613844502058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.814236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>39431.07095726281</v>
+        <v>53990.55654657858</v>
       </c>
     </row>
   </sheetData>
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.75190617572994</v>
+        <v>39.21534866691904</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.3396264741183</v>
+        <v>53.65617010499754</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.58510773700099</v>
+        <v>48.53530053718691</v>
       </c>
       <c r="AD2" t="n">
-        <v>28751.90617572994</v>
+        <v>39215.34866691904</v>
       </c>
       <c r="AE2" t="n">
-        <v>39339.6264741183</v>
+        <v>53656.17010499755</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.952567338477523e-06</v>
+        <v>1.90666255178154e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.958912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>35585.10773700099</v>
+        <v>48535.30053718691</v>
       </c>
     </row>
   </sheetData>
@@ -2655,28 +2655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.70313822903924</v>
+        <v>40.67493427523771</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.6411441348462</v>
+        <v>55.65323952666194</v>
       </c>
       <c r="AC2" t="n">
-        <v>36.76241037888442</v>
+        <v>50.34177245615814</v>
       </c>
       <c r="AD2" t="n">
-        <v>29703.13822903924</v>
+        <v>40674.93427523771</v>
       </c>
       <c r="AE2" t="n">
-        <v>40641.1441348462</v>
+        <v>55653.23952666194</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.046301502685924e-06</v>
+        <v>1.83671196433082e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.85474537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>36762.41037888441</v>
+        <v>50341.77245615814</v>
       </c>
     </row>
   </sheetData>
@@ -2952,28 +2952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.32328641322786</v>
+        <v>48.28452336420351</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.43561117449408</v>
+        <v>66.0650150297128</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.43123003794186</v>
+        <v>59.75986271812211</v>
       </c>
       <c r="AD2" t="n">
-        <v>38323.28641322786</v>
+        <v>48284.52336420351</v>
       </c>
       <c r="AE2" t="n">
-        <v>52435.61117449409</v>
+        <v>66065.0150297128</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.631972115334057e-06</v>
+        <v>1.92217158691727e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>47431.23003794186</v>
+        <v>59759.86271812211</v>
       </c>
     </row>
   </sheetData>
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.64482941788593</v>
+        <v>45.52205974547975</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.03433991454249</v>
+        <v>62.28529043528324</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.64088712278036</v>
+        <v>56.34086973410691</v>
       </c>
       <c r="AD2" t="n">
-        <v>33644.82941788593</v>
+        <v>45522.05974547975</v>
       </c>
       <c r="AE2" t="n">
-        <v>46034.33991454249</v>
+        <v>62285.29043528324</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.982756945180432e-06</v>
+        <v>1.509350680739371e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.950231481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>41640.88712278036</v>
+        <v>56340.86973410691</v>
       </c>
     </row>
     <row r="3">
@@ -3355,28 +3355,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.26297257294193</v>
+        <v>44.14020290053553</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.14362241607785</v>
+        <v>60.39457293681009</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.93061704872487</v>
+        <v>54.63059966004877</v>
       </c>
       <c r="AD3" t="n">
-        <v>32262.97257294194</v>
+        <v>44140.20290053554</v>
       </c>
       <c r="AE3" t="n">
-        <v>44143.62241607784</v>
+        <v>60394.57293681009</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.548523483112471e-06</v>
+        <v>1.616323762223813e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.822916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>39930.61704872487</v>
+        <v>54630.59966004876</v>
       </c>
     </row>
   </sheetData>
@@ -3652,28 +3652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.97586045760241</v>
+        <v>47.69019809638328</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.96024765465823</v>
+        <v>65.25183297850126</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.00123454526084</v>
+        <v>59.02428962056976</v>
       </c>
       <c r="AD2" t="n">
-        <v>37975.86045760241</v>
+        <v>47690.19809638328</v>
       </c>
       <c r="AE2" t="n">
-        <v>51960.24765465823</v>
+        <v>65251.83297850126</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.250342815740414e-06</v>
+        <v>1.891446160048791e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.259837962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>47001.23454526084</v>
+        <v>59024.28962056976</v>
       </c>
     </row>
   </sheetData>
@@ -3949,28 +3949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.88078036423526</v>
+        <v>42.27607103089381</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.25244605811788</v>
+        <v>57.84398547307363</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.2199319080803</v>
+        <v>52.32343668407852</v>
       </c>
       <c r="AD2" t="n">
-        <v>30880.78036423526</v>
+        <v>42276.07103089381</v>
       </c>
       <c r="AE2" t="n">
-        <v>42252.44605811789</v>
+        <v>57843.98547307363</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.827121171652665e-06</v>
+        <v>1.730103550620562e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.834490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>38219.9319080803</v>
+        <v>52323.43668407852</v>
       </c>
     </row>
   </sheetData>
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.98462333393906</v>
+        <v>43.63050059994536</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.76277270737419</v>
+        <v>59.69717576266446</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.58611510169284</v>
+        <v>53.99976109340029</v>
       </c>
       <c r="AD2" t="n">
-        <v>31984.62333393906</v>
+        <v>43630.50059994536</v>
       </c>
       <c r="AE2" t="n">
-        <v>43762.77270737419</v>
+        <v>59697.17576266445</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.5090735694615e-06</v>
+        <v>1.636042197048321e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.866319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>39586.11510169284</v>
+        <v>53999.7610934003</v>
       </c>
     </row>
     <row r="3">
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>31.67324210669402</v>
+        <v>43.31911937270027</v>
       </c>
       <c r="AB3" t="n">
-        <v>43.33672717508937</v>
+        <v>59.27113023037772</v>
       </c>
       <c r="AC3" t="n">
-        <v>39.20073075704936</v>
+        <v>53.61437674875621</v>
       </c>
       <c r="AD3" t="n">
-        <v>31673.24210669402</v>
+        <v>43319.11937270027</v>
       </c>
       <c r="AE3" t="n">
-        <v>43336.72717508937</v>
+        <v>59271.13023037772</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.658308413946724e-06</v>
+        <v>1.6647356265803e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.831597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>39200.73075704936</v>
+        <v>53614.37674875621</v>
       </c>
     </row>
   </sheetData>
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.16464989376645</v>
+        <v>59.17225398711525</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.53275474213092</v>
+        <v>80.96208840074806</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.37383920184574</v>
+        <v>73.2351803148043</v>
       </c>
       <c r="AD2" t="n">
-        <v>47164.64989376645</v>
+        <v>59172.25398711525</v>
       </c>
       <c r="AE2" t="n">
-        <v>64532.75474213092</v>
+        <v>80962.08840074806</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.606058697680403e-06</v>
+        <v>1.416951046142384e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.013888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>58373.83920184574</v>
+        <v>73235.1803148043</v>
       </c>
     </row>
     <row r="3">
@@ -4755,28 +4755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>33.05733717662228</v>
+        <v>45.15019261599371</v>
       </c>
       <c r="AB3" t="n">
-        <v>45.230507111721</v>
+        <v>61.77648542310079</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.91377099447133</v>
+        <v>55.88062435817466</v>
       </c>
       <c r="AD3" t="n">
-        <v>33057.33717662228</v>
+        <v>45150.19261599371</v>
       </c>
       <c r="AE3" t="n">
-        <v>45230.507111721</v>
+        <v>61776.48542310078</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.336712118144112e-06</v>
+        <v>1.553066236629844e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.837384259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>40913.77099447133</v>
+        <v>55880.62435817467</v>
       </c>
     </row>
   </sheetData>
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.98770519260612</v>
+        <v>41.10818868171328</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.03050120860492</v>
+        <v>56.24603731943436</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.11460775999085</v>
+        <v>50.87799445958706</v>
       </c>
       <c r="AD2" t="n">
-        <v>29987.70519260612</v>
+        <v>41108.18868171328</v>
       </c>
       <c r="AE2" t="n">
-        <v>41030.50120860492</v>
+        <v>56246.03731943436</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.042814761048311e-06</v>
+        <v>1.812629826995401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.831597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>37114.60775999085</v>
+        <v>50877.99445958706</v>
       </c>
     </row>
   </sheetData>
@@ -5349,28 +5349,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>28.98998469061134</v>
+        <v>39.63523369748157</v>
       </c>
       <c r="AB2" t="n">
-        <v>39.66537600146024</v>
+        <v>54.2306753278306</v>
       </c>
       <c r="AC2" t="n">
-        <v>35.87976818664672</v>
+        <v>49.05497578787764</v>
       </c>
       <c r="AD2" t="n">
-        <v>28989.98469061134</v>
+        <v>39635.23369748157</v>
       </c>
       <c r="AE2" t="n">
-        <v>39665.37600146024</v>
+        <v>54230.67532783061</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.057315619075193e-06</v>
+        <v>1.894847070075716e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.906828703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>35879.76818664672</v>
+        <v>49054.97578787764</v>
       </c>
     </row>
   </sheetData>
@@ -8467,28 +8467,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.73234814835081</v>
+        <v>48.91248200522702</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.99530748701669</v>
+        <v>66.92421574594076</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.93750971993769</v>
+        <v>60.53706252388933</v>
       </c>
       <c r="AD2" t="n">
-        <v>38732.34814835081</v>
+        <v>48912.48200522702</v>
       </c>
       <c r="AE2" t="n">
-        <v>52995.30748701669</v>
+        <v>66924.21574594076</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.87882015348945e-06</v>
+        <v>1.930127442018409e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.010995370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>47937.50971993769</v>
+        <v>60537.06252388933</v>
       </c>
     </row>
   </sheetData>
@@ -8764,28 +8764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.87244081646151</v>
+        <v>47.47015901207637</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.81874433909736</v>
+        <v>64.95076579591341</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.87323610753554</v>
+        <v>58.75195586733756</v>
       </c>
       <c r="AD2" t="n">
-        <v>37872.44081646151</v>
+        <v>47470.15901207637</v>
       </c>
       <c r="AE2" t="n">
-        <v>51818.74433909736</v>
+        <v>64950.76579591341</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.575234210228938e-06</v>
+        <v>1.801789882403189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.528935185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>46873.23610753554</v>
+        <v>58751.95586733756</v>
       </c>
     </row>
   </sheetData>
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>31.10318305477818</v>
+        <v>42.62643935593334</v>
       </c>
       <c r="AB2" t="n">
-        <v>42.55674723103147</v>
+        <v>58.32337487255207</v>
       </c>
       <c r="AC2" t="n">
-        <v>38.49519100414128</v>
+        <v>52.75707383209813</v>
       </c>
       <c r="AD2" t="n">
-        <v>31103.18305477818</v>
+        <v>42626.43935593334</v>
       </c>
       <c r="AE2" t="n">
-        <v>42556.74723103147</v>
+        <v>58323.37487255207</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.824066162808187e-06</v>
+        <v>1.712379038668026e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.81712962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>38495.19100414128</v>
+        <v>52757.07383209813</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.25185888999468</v>
+        <v>46.23868959412122</v>
       </c>
       <c r="AB2" t="n">
-        <v>46.86490441852792</v>
+        <v>63.26581500967163</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.39218371621249</v>
+        <v>57.22781441929087</v>
       </c>
       <c r="AD2" t="n">
-        <v>34251.85888999468</v>
+        <v>46238.68959412122</v>
       </c>
       <c r="AE2" t="n">
-        <v>46864.90441852792</v>
+        <v>63265.81500967163</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.808001986972185e-06</v>
+        <v>1.465087425427857e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>42392.18371621249</v>
+        <v>57227.81441929087</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>32.59546065046173</v>
+        <v>44.58229135458802</v>
       </c>
       <c r="AB3" t="n">
-        <v>44.59854727207698</v>
+        <v>60.99945786321048</v>
       </c>
       <c r="AC3" t="n">
-        <v>40.34212451495985</v>
+        <v>55.17775521803502</v>
       </c>
       <c r="AD3" t="n">
-        <v>32595.46065046173</v>
+        <v>44582.29135458801</v>
       </c>
       <c r="AE3" t="n">
-        <v>44598.54727207698</v>
+        <v>60999.45786321048</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.472404901543563e-06</v>
+        <v>1.589755472026756e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.822916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>40342.12451495985</v>
+        <v>55177.75521803502</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.79914604680996</v>
+        <v>56.95942851859429</v>
       </c>
       <c r="AB2" t="n">
-        <v>65.40090037071933</v>
+        <v>77.93440297174941</v>
       </c>
       <c r="AC2" t="n">
-        <v>59.15913023009198</v>
+        <v>70.49645293376513</v>
       </c>
       <c r="AD2" t="n">
-        <v>47799.14604680996</v>
+        <v>56959.42851859429</v>
       </c>
       <c r="AE2" t="n">
-        <v>65400.90037071933</v>
+        <v>77934.40297174941</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.303266639932873e-06</v>
+        <v>1.576399151451885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.148148148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>59159.13023009198</v>
+        <v>70496.45293376513</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29.38090457943797</v>
+        <v>40.19485155377905</v>
       </c>
       <c r="AB2" t="n">
-        <v>40.20024983951858</v>
+        <v>54.99636916741051</v>
       </c>
       <c r="AC2" t="n">
-        <v>36.36359441630252</v>
+        <v>49.74759288206837</v>
       </c>
       <c r="AD2" t="n">
-        <v>29380.90457943797</v>
+        <v>40194.85155377905</v>
       </c>
       <c r="AE2" t="n">
-        <v>40200.24983951858</v>
+        <v>54996.36916741051</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.043520263343171e-06</v>
+        <v>1.862317168146807e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.880787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>36363.59441630252</v>
+        <v>49747.59288206838</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>30.34145635342934</v>
+        <v>41.60276368220098</v>
       </c>
       <c r="AB2" t="n">
-        <v>41.5145191532407</v>
+        <v>56.92273665420747</v>
       </c>
       <c r="AC2" t="n">
-        <v>37.55243171131547</v>
+        <v>51.49011055960491</v>
       </c>
       <c r="AD2" t="n">
-        <v>30341.45635342934</v>
+        <v>41602.76368220098</v>
       </c>
       <c r="AE2" t="n">
-        <v>41514.5191532407</v>
+        <v>56922.73665420747</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.994839972320419e-06</v>
+        <v>1.78204340411903e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.820023148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>37552.43171131547</v>
+        <v>51490.11055960492</v>
       </c>
     </row>
   </sheetData>
